--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem2/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem2/99/word_level_predictions_99.xlsx
@@ -941,7 +941,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G10" s="2" t="b">
@@ -965,7 +965,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G11" s="2" t="b">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G12" s="2" t="b">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G16" s="2" t="b">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G17" s="2" t="b">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G18" s="2" t="b">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G20" s="2" t="b">
@@ -1485,7 +1485,7 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -2426,418 +2426,418 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
+      <c r="A39" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C39" s="2" t="inlineStr">
         <is>
           <t>Go</t>
         </is>
       </c>
-      <c r="D39" t="n">
+      <c r="D39" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="E39" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="F39" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I39" t="b">
-        <v>1</v>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K39" t="b">
-        <v>1</v>
-      </c>
-      <c r="L39" t="inlineStr">
+      <c r="G39" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
+      <c r="A40" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C40" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D40" t="n">
+      <c r="D40" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I40" t="b">
-        <v>1</v>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K40" t="b">
-        <v>1</v>
-      </c>
-      <c r="L40" t="inlineStr">
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
+      <c r="A41" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C41" s="2" t="inlineStr">
         <is>
           <t>Profile</t>
         </is>
       </c>
-      <c r="D41" t="n">
+      <c r="D41" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G41" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I41" t="b">
-        <v>1</v>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K41" t="b">
-        <v>1</v>
-      </c>
-      <c r="L41" t="inlineStr">
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
+      <c r="A42" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C42" s="2" t="inlineStr">
         <is>
           <t>&gt;</t>
         </is>
       </c>
-      <c r="D42" t="n">
+      <c r="D42" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I42" t="b">
-        <v>1</v>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K42" t="b">
-        <v>1</v>
-      </c>
-      <c r="L42" t="inlineStr">
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
+      <c r="A43" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C43" s="2" t="inlineStr">
         <is>
           <t>Settings</t>
         </is>
       </c>
-      <c r="D43" t="n">
+      <c r="D43" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I43" t="b">
-        <v>1</v>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K43" t="b">
-        <v>1</v>
-      </c>
-      <c r="L43" t="inlineStr">
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
+      <c r="A44" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C44" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D44" t="n">
+      <c r="D44" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I44" t="b">
-        <v>1</v>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K44" t="b">
-        <v>1</v>
-      </c>
-      <c r="L44" t="inlineStr">
+      <c r="E44" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
+      <c r="A45" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C45" s="2" t="inlineStr">
         <is>
           <t>update</t>
         </is>
       </c>
-      <c r="D45" t="n">
+      <c r="D45" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G45" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I45" t="b">
-        <v>1</v>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K45" t="b">
-        <v>1</v>
-      </c>
-      <c r="L45" t="inlineStr">
+      <c r="E45" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F45" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
+      <c r="A46" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C46" s="2" t="inlineStr">
         <is>
           <t>firmware</t>
         </is>
       </c>
-      <c r="D46" t="n">
+      <c r="D46" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E46" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G46" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K46" t="b">
-        <v>1</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -4581,7 +4581,7 @@
       </c>
       <c r="F80" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G80" s="2" t="b">
@@ -4605,7 +4605,7 @@
       </c>
       <c r="L80" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -8614,314 +8614,314 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="n">
+      <c r="A158" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B158" t="inlineStr">
+      <c r="B158" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C158" t="inlineStr">
+      <c r="C158" s="2" t="inlineStr">
         <is>
           <t>Be</t>
         </is>
       </c>
-      <c r="D158" t="n">
+      <c r="D158" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E158" t="inlineStr">
+      <c r="E158" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G158" t="b">
-        <v>1</v>
-      </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I158" t="b">
-        <v>1</v>
-      </c>
-      <c r="J158" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K158" t="b">
-        <v>1</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F158" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G158" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H158" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I158" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J158" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K158" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L158" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="n">
+      <c r="A159" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B159" t="inlineStr">
+      <c r="B159" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C159" t="inlineStr">
+      <c r="C159" s="2" t="inlineStr">
         <is>
           <t>careful</t>
         </is>
       </c>
-      <c r="D159" t="n">
+      <c r="D159" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G159" t="b">
-        <v>1</v>
-      </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I159" t="b">
-        <v>1</v>
-      </c>
-      <c r="J159" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K159" t="b">
-        <v>1</v>
-      </c>
-      <c r="L159" t="inlineStr">
+      <c r="E159" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F159" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G159" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H159" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I159" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J159" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K159" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L159" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="n">
+      <c r="A160" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B160" t="inlineStr">
+      <c r="B160" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C160" t="inlineStr">
+      <c r="C160" s="2" t="inlineStr">
         <is>
           <t>when</t>
         </is>
       </c>
-      <c r="D160" t="n">
+      <c r="D160" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G160" t="b">
-        <v>1</v>
-      </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I160" t="b">
-        <v>1</v>
-      </c>
-      <c r="J160" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K160" t="b">
-        <v>1</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E160" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F160" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G160" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H160" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I160" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J160" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K160" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L160" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="n">
+      <c r="A161" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B161" t="inlineStr">
+      <c r="B161" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr">
+      <c r="C161" s="2" t="inlineStr">
         <is>
           <t>flying</t>
         </is>
       </c>
-      <c r="D161" t="n">
+      <c r="D161" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G161" t="b">
-        <v>1</v>
-      </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I161" t="b">
-        <v>1</v>
-      </c>
-      <c r="J161" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K161" t="b">
-        <v>1</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E161" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F161" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G161" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H161" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I161" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J161" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K161" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L161" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="n">
+      <c r="A162" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B162" t="inlineStr">
+      <c r="B162" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C162" t="inlineStr">
+      <c r="C162" s="2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="D162" t="n">
+      <c r="D162" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G162" t="b">
-        <v>1</v>
-      </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I162" t="b">
-        <v>1</v>
-      </c>
-      <c r="J162" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K162" t="b">
-        <v>1</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E162" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F162" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G162" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H162" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I162" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J162" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K162" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L162" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="n">
+      <c r="A163" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B163" t="inlineStr">
+      <c r="B163" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C163" t="inlineStr">
+      <c r="C163" s="2" t="inlineStr">
         <is>
           <t>distances</t>
         </is>
       </c>
-      <c r="D163" t="n">
+      <c r="D163" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E163" t="inlineStr">
+      <c r="E163" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G163" t="b">
-        <v>1</v>
-      </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I163" t="b">
-        <v>1</v>
-      </c>
-      <c r="J163" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K163" t="b">
-        <v>1</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F163" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G163" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H163" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I163" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J163" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K163" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L163" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11301,11 +11301,11 @@
         </is>
       </c>
       <c r="I209" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J209" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K209" s="2" t="b">
@@ -11353,11 +11353,11 @@
         </is>
       </c>
       <c r="I210" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J210" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K210" s="2" t="b">
@@ -11405,11 +11405,11 @@
         </is>
       </c>
       <c r="I211" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J211" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K211" s="2" t="b">
@@ -11457,11 +11457,11 @@
         </is>
       </c>
       <c r="I212" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K212" s="2" t="b">
@@ -11509,11 +11509,11 @@
         </is>
       </c>
       <c r="I213" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K213" s="2" t="b">
@@ -11561,11 +11561,11 @@
         </is>
       </c>
       <c r="I214" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K214" s="2" t="b">
@@ -11613,11 +11613,11 @@
         </is>
       </c>
       <c r="I215" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K215" s="2" t="b">
@@ -11665,11 +11665,11 @@
         </is>
       </c>
       <c r="I216" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K216" s="2" t="b">
@@ -11717,11 +11717,11 @@
         </is>
       </c>
       <c r="I217" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K217" s="2" t="b">
@@ -11769,11 +11769,11 @@
         </is>
       </c>
       <c r="I218" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J218" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K218" s="2" t="b">
@@ -11821,11 +11821,11 @@
         </is>
       </c>
       <c r="I219" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J219" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K219" s="2" t="b">
@@ -11873,11 +11873,11 @@
         </is>
       </c>
       <c r="I220" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J220" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K220" s="2" t="b">
@@ -11925,11 +11925,11 @@
         </is>
       </c>
       <c r="I221" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J221" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K221" s="2" t="b">
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -12017,7 +12017,7 @@
       </c>
       <c r="F223" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G223" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12041,7 +12041,7 @@
       </c>
       <c r="L223" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12069,7 +12069,7 @@
       </c>
       <c r="F224" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G224" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12093,7 +12093,7 @@
       </c>
       <c r="L224" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="F225" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G225" s="2" t="b">
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12145,7 +12145,7 @@
       </c>
       <c r="L225" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12173,7 +12173,7 @@
       </c>
       <c r="F226" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G226" s="2" t="b">
@@ -12185,11 +12185,11 @@
         </is>
       </c>
       <c r="I226" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J226" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K226" s="2" t="b">
@@ -12197,7 +12197,7 @@
       </c>
       <c r="L226" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12237,11 +12237,11 @@
         </is>
       </c>
       <c r="I227" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J227" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K227" s="2" t="b">
@@ -12289,11 +12289,11 @@
         </is>
       </c>
       <c r="I228" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J228" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K228" s="2" t="b">
@@ -20522,210 +20522,210 @@
       </c>
     </row>
     <row r="387">
-      <c r="A387" s="2" t="n">
+      <c r="A387" t="n">
         <v>35</v>
       </c>
-      <c r="B387" s="2" t="inlineStr">
+      <c r="B387" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C387" s="2" t="inlineStr">
+      <c r="C387" t="inlineStr">
         <is>
           <t>Insufficient</t>
         </is>
       </c>
-      <c r="D387" s="2" t="n">
+      <c r="D387" t="n">
         <v>0</v>
       </c>
-      <c r="E387" s="2" t="inlineStr">
+      <c r="E387" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F387" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G387" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H387" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I387" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J387" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K387" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L387" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G387" t="b">
+        <v>1</v>
+      </c>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I387" t="b">
+        <v>1</v>
+      </c>
+      <c r="J387" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K387" t="b">
+        <v>1</v>
+      </c>
+      <c r="L387" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="388">
-      <c r="A388" s="2" t="n">
+      <c r="A388" t="n">
         <v>35</v>
       </c>
-      <c r="B388" s="2" t="inlineStr">
+      <c r="B388" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C388" s="2" t="inlineStr">
+      <c r="C388" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="D388" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E388" s="2" t="inlineStr">
+      <c r="D388" t="n">
+        <v>1</v>
+      </c>
+      <c r="E388" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F388" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G388" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H388" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I388" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J388" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K388" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L388" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G388" t="b">
+        <v>1</v>
+      </c>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I388" t="b">
+        <v>1</v>
+      </c>
+      <c r="J388" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K388" t="b">
+        <v>1</v>
+      </c>
+      <c r="L388" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="389">
-      <c r="A389" s="2" t="n">
+      <c r="A389" t="n">
         <v>35</v>
       </c>
-      <c r="B389" s="2" t="inlineStr">
+      <c r="B389" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C389" s="2" t="inlineStr">
+      <c r="C389" t="inlineStr">
         <is>
           <t>card</t>
         </is>
       </c>
-      <c r="D389" s="2" t="n">
+      <c r="D389" t="n">
         <v>2</v>
       </c>
-      <c r="E389" s="2" t="inlineStr">
+      <c r="E389" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F389" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G389" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H389" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I389" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J389" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K389" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L389" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G389" t="b">
+        <v>1</v>
+      </c>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I389" t="b">
+        <v>1</v>
+      </c>
+      <c r="J389" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K389" t="b">
+        <v>1</v>
+      </c>
+      <c r="L389" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="390">
-      <c r="A390" s="2" t="n">
+      <c r="A390" t="n">
         <v>35</v>
       </c>
-      <c r="B390" s="2" t="inlineStr">
+      <c r="B390" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C390" s="2" t="inlineStr">
+      <c r="C390" t="inlineStr">
         <is>
           <t>space</t>
         </is>
       </c>
-      <c r="D390" s="2" t="n">
+      <c r="D390" t="n">
         <v>3</v>
       </c>
-      <c r="E390" s="2" t="inlineStr">
+      <c r="E390" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F390" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G390" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H390" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I390" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J390" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K390" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L390" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G390" t="b">
+        <v>1</v>
+      </c>
+      <c r="H390" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I390" t="b">
+        <v>1</v>
+      </c>
+      <c r="J390" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K390" t="b">
+        <v>1</v>
+      </c>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem2/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem2/99/word_level_predictions_99.xlsx
@@ -941,7 +941,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G10" s="2" t="b">
@@ -965,7 +965,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G11" s="2" t="b">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G12" s="2" t="b">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G16" s="2" t="b">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G17" s="2" t="b">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G18" s="2" t="b">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G20" s="2" t="b">
@@ -1485,7 +1485,7 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -2426,418 +2426,418 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n">
+      <c r="A39" t="n">
         <v>3</v>
       </c>
-      <c r="B39" s="2" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C39" s="2" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>Go</t>
         </is>
       </c>
-      <c r="D39" s="2" t="n">
+      <c r="D39" t="n">
         <v>3</v>
       </c>
-      <c r="E39" s="2" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F39" s="2" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G39" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I39" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K39" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L39" s="2" t="inlineStr">
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I39" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K39" t="b">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n">
+      <c r="A40" t="n">
         <v>3</v>
       </c>
-      <c r="B40" s="2" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C40" s="2" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D40" s="2" t="n">
+      <c r="D40" t="n">
         <v>4</v>
       </c>
-      <c r="E40" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F40" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G40" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I40" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K40" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L40" s="2" t="inlineStr">
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I40" t="b">
+        <v>1</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K40" t="b">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n">
+      <c r="A41" t="n">
         <v>3</v>
       </c>
-      <c r="B41" s="2" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C41" s="2" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>Profile</t>
         </is>
       </c>
-      <c r="D41" s="2" t="n">
+      <c r="D41" t="n">
         <v>5</v>
       </c>
-      <c r="E41" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F41" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G41" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I41" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K41" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L41" s="2" t="inlineStr">
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I41" t="b">
+        <v>1</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K41" t="b">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n">
+      <c r="A42" t="n">
         <v>3</v>
       </c>
-      <c r="B42" s="2" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C42" s="2" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>&gt;</t>
         </is>
       </c>
-      <c r="D42" s="2" t="n">
+      <c r="D42" t="n">
         <v>6</v>
       </c>
-      <c r="E42" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F42" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G42" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I42" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K42" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L42" s="2" t="inlineStr">
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I42" t="b">
+        <v>1</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K42" t="b">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n">
+      <c r="A43" t="n">
         <v>3</v>
       </c>
-      <c r="B43" s="2" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C43" s="2" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>Settings</t>
         </is>
       </c>
-      <c r="D43" s="2" t="n">
+      <c r="D43" t="n">
         <v>7</v>
       </c>
-      <c r="E43" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F43" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G43" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I43" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K43" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L43" s="2" t="inlineStr">
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I43" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K43" t="b">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n">
+      <c r="A44" t="n">
         <v>3</v>
       </c>
-      <c r="B44" s="2" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C44" s="2" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D44" s="2" t="n">
+      <c r="D44" t="n">
         <v>8</v>
       </c>
-      <c r="E44" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F44" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G44" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I44" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K44" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L44" s="2" t="inlineStr">
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I44" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K44" t="b">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n">
+      <c r="A45" t="n">
         <v>3</v>
       </c>
-      <c r="B45" s="2" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C45" s="2" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>update</t>
         </is>
       </c>
-      <c r="D45" s="2" t="n">
+      <c r="D45" t="n">
         <v>9</v>
       </c>
-      <c r="E45" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F45" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G45" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I45" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K45" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L45" s="2" t="inlineStr">
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I45" t="b">
+        <v>1</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K45" t="b">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n">
+      <c r="A46" t="n">
         <v>3</v>
       </c>
-      <c r="B46" s="2" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C46" s="2" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>firmware</t>
         </is>
       </c>
-      <c r="D46" s="2" t="n">
+      <c r="D46" t="n">
         <v>10</v>
       </c>
-      <c r="E46" s="2" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F46" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G46" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I46" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K46" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L46" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K46" t="b">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4581,7 +4581,7 @@
       </c>
       <c r="F80" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G80" s="2" t="b">
@@ -4605,7 +4605,7 @@
       </c>
       <c r="L80" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -8614,314 +8614,314 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="2" t="n">
+      <c r="A158" t="n">
         <v>15</v>
       </c>
-      <c r="B158" s="2" t="inlineStr">
+      <c r="B158" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C158" s="2" t="inlineStr">
+      <c r="C158" t="inlineStr">
         <is>
           <t>Be</t>
         </is>
       </c>
-      <c r="D158" s="2" t="n">
+      <c r="D158" t="n">
         <v>3</v>
       </c>
-      <c r="E158" s="2" t="inlineStr">
+      <c r="E158" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F158" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G158" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H158" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I158" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J158" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K158" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L158" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G158" t="b">
+        <v>1</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I158" t="b">
+        <v>1</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K158" t="b">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="2" t="n">
+      <c r="A159" t="n">
         <v>15</v>
       </c>
-      <c r="B159" s="2" t="inlineStr">
+      <c r="B159" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C159" s="2" t="inlineStr">
+      <c r="C159" t="inlineStr">
         <is>
           <t>careful</t>
         </is>
       </c>
-      <c r="D159" s="2" t="n">
+      <c r="D159" t="n">
         <v>4</v>
       </c>
-      <c r="E159" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F159" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G159" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H159" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I159" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J159" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K159" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L159" s="2" t="inlineStr">
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G159" t="b">
+        <v>1</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I159" t="b">
+        <v>1</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K159" t="b">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="2" t="n">
+      <c r="A160" t="n">
         <v>15</v>
       </c>
-      <c r="B160" s="2" t="inlineStr">
+      <c r="B160" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C160" s="2" t="inlineStr">
+      <c r="C160" t="inlineStr">
         <is>
           <t>when</t>
         </is>
       </c>
-      <c r="D160" s="2" t="n">
+      <c r="D160" t="n">
         <v>5</v>
       </c>
-      <c r="E160" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F160" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G160" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H160" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I160" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J160" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K160" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L160" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G160" t="b">
+        <v>1</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I160" t="b">
+        <v>1</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K160" t="b">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="2" t="n">
+      <c r="A161" t="n">
         <v>15</v>
       </c>
-      <c r="B161" s="2" t="inlineStr">
+      <c r="B161" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C161" s="2" t="inlineStr">
+      <c r="C161" t="inlineStr">
         <is>
           <t>flying</t>
         </is>
       </c>
-      <c r="D161" s="2" t="n">
+      <c r="D161" t="n">
         <v>6</v>
       </c>
-      <c r="E161" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F161" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G161" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H161" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I161" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J161" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K161" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L161" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G161" t="b">
+        <v>1</v>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I161" t="b">
+        <v>1</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K161" t="b">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="2" t="n">
+      <c r="A162" t="n">
         <v>15</v>
       </c>
-      <c r="B162" s="2" t="inlineStr">
+      <c r="B162" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C162" s="2" t="inlineStr">
+      <c r="C162" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="D162" s="2" t="n">
+      <c r="D162" t="n">
         <v>7</v>
       </c>
-      <c r="E162" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F162" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G162" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H162" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I162" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J162" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K162" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L162" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G162" t="b">
+        <v>1</v>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I162" t="b">
+        <v>1</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K162" t="b">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="2" t="n">
+      <c r="A163" t="n">
         <v>15</v>
       </c>
-      <c r="B163" s="2" t="inlineStr">
+      <c r="B163" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C163" s="2" t="inlineStr">
+      <c r="C163" t="inlineStr">
         <is>
           <t>distances</t>
         </is>
       </c>
-      <c r="D163" s="2" t="n">
+      <c r="D163" t="n">
         <v>8</v>
       </c>
-      <c r="E163" s="2" t="inlineStr">
+      <c r="E163" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F163" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G163" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H163" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I163" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J163" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K163" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L163" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G163" t="b">
+        <v>1</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I163" t="b">
+        <v>1</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K163" t="b">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11301,11 +11301,11 @@
         </is>
       </c>
       <c r="I209" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J209" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K209" s="2" t="b">
@@ -11353,11 +11353,11 @@
         </is>
       </c>
       <c r="I210" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J210" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K210" s="2" t="b">
@@ -11405,11 +11405,11 @@
         </is>
       </c>
       <c r="I211" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J211" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K211" s="2" t="b">
@@ -11457,11 +11457,11 @@
         </is>
       </c>
       <c r="I212" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K212" s="2" t="b">
@@ -11509,11 +11509,11 @@
         </is>
       </c>
       <c r="I213" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K213" s="2" t="b">
@@ -11561,11 +11561,11 @@
         </is>
       </c>
       <c r="I214" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J214" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K214" s="2" t="b">
@@ -11613,11 +11613,11 @@
         </is>
       </c>
       <c r="I215" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K215" s="2" t="b">
@@ -11665,11 +11665,11 @@
         </is>
       </c>
       <c r="I216" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K216" s="2" t="b">
@@ -11717,11 +11717,11 @@
         </is>
       </c>
       <c r="I217" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K217" s="2" t="b">
@@ -11769,11 +11769,11 @@
         </is>
       </c>
       <c r="I218" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J218" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K218" s="2" t="b">
@@ -11821,11 +11821,11 @@
         </is>
       </c>
       <c r="I219" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J219" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K219" s="2" t="b">
@@ -11873,11 +11873,11 @@
         </is>
       </c>
       <c r="I220" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J220" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K220" s="2" t="b">
@@ -11925,11 +11925,11 @@
         </is>
       </c>
       <c r="I221" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J221" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K221" s="2" t="b">
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -12017,7 +12017,7 @@
       </c>
       <c r="F223" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G223" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12041,7 +12041,7 @@
       </c>
       <c r="L223" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12069,7 +12069,7 @@
       </c>
       <c r="F224" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G224" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12093,7 +12093,7 @@
       </c>
       <c r="L224" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="F225" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G225" s="2" t="b">
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12145,7 +12145,7 @@
       </c>
       <c r="L225" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12173,7 +12173,7 @@
       </c>
       <c r="F226" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G226" s="2" t="b">
@@ -12185,11 +12185,11 @@
         </is>
       </c>
       <c r="I226" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J226" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K226" s="2" t="b">
@@ -12197,7 +12197,7 @@
       </c>
       <c r="L226" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12237,11 +12237,11 @@
         </is>
       </c>
       <c r="I227" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J227" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K227" s="2" t="b">
@@ -12289,11 +12289,11 @@
         </is>
       </c>
       <c r="I228" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J228" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K228" s="2" t="b">
@@ -20522,210 +20522,210 @@
       </c>
     </row>
     <row r="387">
-      <c r="A387" t="n">
+      <c r="A387" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B387" t="inlineStr">
+      <c r="B387" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C387" t="inlineStr">
+      <c r="C387" s="2" t="inlineStr">
         <is>
           <t>Insufficient</t>
         </is>
       </c>
-      <c r="D387" t="n">
+      <c r="D387" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E387" t="inlineStr">
+      <c r="E387" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F387" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G387" t="b">
-        <v>1</v>
-      </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I387" t="b">
-        <v>1</v>
-      </c>
-      <c r="J387" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K387" t="b">
-        <v>1</v>
-      </c>
-      <c r="L387" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F387" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G387" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H387" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I387" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J387" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K387" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L387" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="388">
-      <c r="A388" t="n">
+      <c r="A388" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B388" t="inlineStr">
+      <c r="B388" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C388" t="inlineStr">
+      <c r="C388" s="2" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="D388" t="n">
-        <v>1</v>
-      </c>
-      <c r="E388" t="inlineStr">
+      <c r="D388" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E388" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F388" t="inlineStr">
+      <c r="F388" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G388" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H388" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I388" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J388" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K388" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L388" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B389" s="2" t="inlineStr">
+        <is>
+          <t>Insufficient SD card space Change card or delete files .</t>
+        </is>
+      </c>
+      <c r="C389" s="2" t="inlineStr">
+        <is>
+          <t>card</t>
+        </is>
+      </c>
+      <c r="D389" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E389" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G388" t="b">
-        <v>1</v>
-      </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I388" t="b">
-        <v>1</v>
-      </c>
-      <c r="J388" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K388" t="b">
-        <v>1</v>
-      </c>
-      <c r="L388" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="n">
+      <c r="F389" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G389" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H389" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I389" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J389" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K389" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L389" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B389" t="inlineStr">
+      <c r="B390" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C389" t="inlineStr">
-        <is>
-          <t>card</t>
-        </is>
-      </c>
-      <c r="D389" t="n">
-        <v>2</v>
-      </c>
-      <c r="E389" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F389" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G389" t="b">
-        <v>1</v>
-      </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I389" t="b">
-        <v>1</v>
-      </c>
-      <c r="J389" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K389" t="b">
-        <v>1</v>
-      </c>
-      <c r="L389" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="n">
-        <v>35</v>
-      </c>
-      <c r="B390" t="inlineStr">
-        <is>
-          <t>Insufficient SD card space Change card or delete files .</t>
-        </is>
-      </c>
-      <c r="C390" t="inlineStr">
+      <c r="C390" s="2" t="inlineStr">
         <is>
           <t>space</t>
         </is>
       </c>
-      <c r="D390" t="n">
+      <c r="D390" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E390" t="inlineStr">
+      <c r="E390" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F390" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G390" t="b">
-        <v>1</v>
-      </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I390" t="b">
-        <v>1</v>
-      </c>
-      <c r="J390" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K390" t="b">
-        <v>1</v>
-      </c>
-      <c r="L390" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F390" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G390" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H390" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I390" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J390" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K390" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L390" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
